--- a/Fire_Alarm/swe_func_discription.xlsx
+++ b/Fire_Alarm/swe_func_discription.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\pp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.mamdooh\Desktop\cdd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,17 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>TAGS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>FUNCTIONS</t>
   </si>
@@ -51,24 +48,6 @@
 line of the LCD  as the first line will Display any changes of the temperature readings 
 the counter value is only diplayed whenever it counts a new temperature
  rising that exceeds threshold.</t>
-  </si>
-  <si>
-    <t>SD_1</t>
-  </si>
-  <si>
-    <t>SD_2</t>
-  </si>
-  <si>
-    <t>SD_4</t>
-  </si>
-  <si>
-    <t>SD_5</t>
-  </si>
-  <si>
-    <t>SD_3</t>
-  </si>
-  <si>
-    <t>SD_6</t>
   </si>
   <si>
     <t>1-intializing the whole system modules (ADC,DIO,LCD) and enable the ADC module  .</t>
@@ -93,12 +72,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,16 +100,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,75 +388,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B7"/>
+  <autoFilter ref="A1:A7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fire_Alarm/swe_func_discription.xlsx
+++ b/Fire_Alarm/swe_func_discription.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FUNCTIONS</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t xml:space="preserve">4-the buzzer_on ,buzzer_off , functions calls the lower MCAL layer which writes 1 or 0 to 
 micro controller pin connected to the buzzer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 - the writing on LCD will be after 1 sec , to make the  change on it as smooth as possible for human eye </t>
   </si>
 </sst>
 </file>
@@ -70,6 +73,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -388,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -434,6 +438,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
